--- a/team_specific_matrix/Tarleton St._B.xlsx
+++ b/team_specific_matrix/Tarleton St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1962616822429906</v>
+        <v>0.2201492537313433</v>
       </c>
       <c r="C2">
-        <v>0.5280373831775701</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01401869158878505</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1401869158878505</v>
+        <v>0.1529850746268657</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1214953271028037</v>
+        <v>0.1156716417910448</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007751937984496124</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C3">
-        <v>0.02325581395348837</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06201550387596899</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7984496124031008</v>
+        <v>0.7986577181208053</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1085271317829457</v>
+        <v>0.1208053691275168</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.075</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05228758169934641</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0130718954248366</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0392156862745098</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.326797385620915</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03267973856209151</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1568627450980392</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R6">
-        <v>0.0718954248366013</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="S6">
-        <v>0.3071895424836601</v>
+        <v>0.3227513227513227</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1259842519685039</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01574803149606299</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05511811023622047</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1338582677165354</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1181102362204724</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="R7">
-        <v>0.07086614173228346</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="S7">
-        <v>0.4803149606299212</v>
+        <v>0.4906832298136646</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1027190332326284</v>
+        <v>0.09414758269720101</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01510574018126888</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07250755287009064</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1178247734138973</v>
+        <v>0.1170483460559796</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01510574018126888</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1691842900302115</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="R8">
-        <v>0.07552870090634441</v>
+        <v>0.08905852417302799</v>
       </c>
       <c r="S8">
-        <v>0.43202416918429</v>
+        <v>0.4351145038167939</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06315789473684211</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01052631578947368</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1157894736842105</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1789473684210526</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04210526315789474</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1368421052631579</v>
+        <v>0.125</v>
       </c>
       <c r="R9">
-        <v>0.07368421052631578</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="S9">
-        <v>0.3789473684210526</v>
+        <v>0.3839285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1143827859569649</v>
+        <v>0.1155638397017707</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02491506228765572</v>
+        <v>0.02423112767940354</v>
       </c>
       <c r="E10">
-        <v>0.003397508493771234</v>
+        <v>0.002795899347623486</v>
       </c>
       <c r="F10">
-        <v>0.06568516421291053</v>
+        <v>0.07269338303821063</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1359003397508494</v>
+        <v>0.1314072693383038</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03057757644394111</v>
+        <v>0.0260950605778192</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2129105322763307</v>
+        <v>0.2087604846225536</v>
       </c>
       <c r="R10">
-        <v>0.07701019252548132</v>
+        <v>0.08480894687791239</v>
       </c>
       <c r="S10">
-        <v>0.3352208380520951</v>
+        <v>0.3336439888164026</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01169590643274854</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G11">
-        <v>0.1578947368421053</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08771929824561403</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>0.2046783625730994</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="L11">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01169590643274854</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8369565217391305</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.108695652173913</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="K12">
-        <v>0.0108695652173913</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="L12">
-        <v>0.02173913043478261</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02173913043478261</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08888888888888889</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02649006622516556</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1589403973509934</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="I15">
-        <v>0.05960264900662252</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="J15">
-        <v>0.3509933774834437</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.05298013245033113</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006622516556291391</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03311258278145696</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3112582781456953</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03448275862068965</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1793103448275862</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="I16">
-        <v>0.03448275862068965</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="J16">
-        <v>0.3931034482758621</v>
+        <v>0.4171428571428571</v>
       </c>
       <c r="K16">
-        <v>0.1448275862068966</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02758620689655172</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06206896551724138</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1241379310344828</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009900990099009901</v>
+        <v>0.01404494382022472</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1617161716171617</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="I17">
-        <v>0.0627062706270627</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="J17">
-        <v>0.4521452145214521</v>
+        <v>0.4353932584269663</v>
       </c>
       <c r="K17">
-        <v>0.07590759075907591</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03630363036303631</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07260726072607261</v>
+        <v>0.0702247191011236</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1287128712871287</v>
+        <v>0.1376404494382023</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.152</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="I18">
-        <v>0.048</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="J18">
-        <v>0.512</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="K18">
-        <v>0.08799999999999999</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.024</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="O18">
-        <v>0.04</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.136</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01437125748502994</v>
+        <v>0.01459143968871595</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2562874251497006</v>
+        <v>0.2529182879377432</v>
       </c>
       <c r="I19">
-        <v>0.06826347305389222</v>
+        <v>0.061284046692607</v>
       </c>
       <c r="J19">
-        <v>0.3532934131736527</v>
+        <v>0.3608949416342412</v>
       </c>
       <c r="K19">
-        <v>0.09221556886227544</v>
+        <v>0.09922178988326848</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0311377245508982</v>
+        <v>0.0301556420233463</v>
       </c>
       <c r="N19">
-        <v>0.001197604790419162</v>
+        <v>0.0009727626459143969</v>
       </c>
       <c r="O19">
-        <v>0.07305389221556886</v>
+        <v>0.06906614785992218</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101796407185629</v>
+        <v>0.1108949416342412</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tarleton St._B.xlsx
+++ b/team_specific_matrix/Tarleton St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2201492537313433</v>
+        <v>0.2255892255892256</v>
       </c>
       <c r="C2">
-        <v>0.4925373134328358</v>
+        <v>0.4915824915824916</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01865671641791045</v>
+        <v>0.01683501683501683</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529850746268657</v>
+        <v>0.1582491582491583</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1156716417910448</v>
+        <v>0.1077441077441077</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006711409395973154</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.02013422818791946</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05369127516778523</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7986577181208053</v>
+        <v>0.7852760736196319</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1208053691275168</v>
+        <v>0.1349693251533742</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.075</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.575</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.35</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0582010582010582</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01058201058201058</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03703703703703703</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3227513227513227</v>
+        <v>0.3155339805825243</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02645502645502645</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1428571428571428</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="R6">
-        <v>0.07936507936507936</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S6">
-        <v>0.3227513227513227</v>
+        <v>0.3203883495145631</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02484472049689441</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04968944099378882</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1180124223602484</v>
+        <v>0.1306818181818182</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006211180124223602</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1118012422360248</v>
+        <v>0.1193181818181818</v>
       </c>
       <c r="R7">
-        <v>0.06832298136645963</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.4906832298136646</v>
+        <v>0.4772727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09414758269720101</v>
+        <v>0.102974828375286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01526717557251908</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06615776081424936</v>
+        <v>0.06407322654462243</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1170483460559796</v>
+        <v>0.1121281464530892</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01526717557251908</v>
+        <v>0.0137299771167048</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1679389312977099</v>
+        <v>0.1601830663615561</v>
       </c>
       <c r="R8">
-        <v>0.08905852417302799</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S8">
-        <v>0.4351145038167939</v>
+        <v>0.4439359267734554</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08035714285714286</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008928571428571428</v>
+        <v>0.008</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1071428571428571</v>
+        <v>0.096</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1607142857142857</v>
+        <v>0.16</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.032</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.125</v>
+        <v>0.136</v>
       </c>
       <c r="R9">
-        <v>0.09821428571428571</v>
+        <v>0.096</v>
       </c>
       <c r="S9">
-        <v>0.3839285714285715</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1155638397017707</v>
+        <v>0.1170858629661752</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02423112767940354</v>
+        <v>0.02341717259323504</v>
       </c>
       <c r="E10">
-        <v>0.002795899347623486</v>
+        <v>0.002601908065915004</v>
       </c>
       <c r="F10">
-        <v>0.07269338303821063</v>
+        <v>0.07545533391153512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1314072693383038</v>
+        <v>0.1274934952298352</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0260950605778192</v>
+        <v>0.02428447528187338</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2087604846225536</v>
+        <v>0.2116218560277537</v>
       </c>
       <c r="R10">
-        <v>0.08480894687791239</v>
+        <v>0.08326105810928014</v>
       </c>
       <c r="S10">
-        <v>0.3336439888164026</v>
+        <v>0.3347788378143972</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.008888888888888889</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="G11">
-        <v>0.1511111111111111</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="K11">
-        <v>0.1911111111111111</v>
+        <v>0.1844262295081967</v>
       </c>
       <c r="L11">
-        <v>0.5555555555555556</v>
+        <v>0.569672131147541</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01229508196721311</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7674418604651163</v>
+        <v>0.7517241379310344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1705426356589147</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="K12">
-        <v>0.007751937984496124</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="L12">
-        <v>0.0310077519379845</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02325581395348837</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7169811320754716</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2075471698113208</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07547169811320754</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02298850574712644</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1436781609195402</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="I15">
-        <v>0.05747126436781609</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="K15">
-        <v>0.05747126436781609</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01149425287356322</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04022988505747126</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3333333333333333</v>
+        <v>0.3105263157894737</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1542857142857143</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="I16">
-        <v>0.04571428571428571</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="J16">
-        <v>0.4171428571428571</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K16">
-        <v>0.1657142857142857</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02285714285714286</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05142857142857143</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1142857142857143</v>
+        <v>0.1263157894736842</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01404494382022472</v>
+        <v>0.01275510204081633</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1685393258426966</v>
+        <v>0.1760204081632653</v>
       </c>
       <c r="I17">
-        <v>0.06179775280898876</v>
+        <v>0.06887755102040816</v>
       </c>
       <c r="J17">
-        <v>0.4353932584269663</v>
+        <v>0.4158163265306122</v>
       </c>
       <c r="K17">
-        <v>0.07865168539325842</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03370786516853932</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="O17">
-        <v>0.0702247191011236</v>
+        <v>0.07397959183673469</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1376404494382023</v>
+        <v>0.1301020408163265</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005952380952380952</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1369047619047619</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I18">
-        <v>0.05952380952380952</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="J18">
-        <v>0.4880952380952381</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="K18">
-        <v>0.09523809523809523</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02380952380952381</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N18">
-        <v>0.005952380952380952</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="O18">
-        <v>0.04166666666666666</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01459143968871595</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2529182879377432</v>
+        <v>0.2544802867383513</v>
       </c>
       <c r="I19">
-        <v>0.061284046692607</v>
+        <v>0.06093189964157706</v>
       </c>
       <c r="J19">
-        <v>0.3608949416342412</v>
+        <v>0.3593189964157706</v>
       </c>
       <c r="K19">
-        <v>0.09922178988326848</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0301556420233463</v>
+        <v>0.02956989247311828</v>
       </c>
       <c r="N19">
-        <v>0.0009727626459143969</v>
+        <v>0.0008960573476702509</v>
       </c>
       <c r="O19">
-        <v>0.06906614785992218</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1108949416342412</v>
+        <v>0.1102150537634409</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tarleton St._B.xlsx
+++ b/team_specific_matrix/Tarleton St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2255892255892256</v>
+        <v>0.225</v>
       </c>
       <c r="C2">
-        <v>0.4915824915824916</v>
+        <v>0.496875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01683501683501683</v>
+        <v>0.015625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1582491582491583</v>
+        <v>0.153125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1077441077441077</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="C3">
-        <v>0.0245398773006135</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.049079754601227</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7852760736196319</v>
+        <v>0.7541899441340782</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1349693251533742</v>
+        <v>0.1508379888268156</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5476190476190477</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3571428571428572</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06310679611650485</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009708737864077669</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03398058252427184</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3155339805825243</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02427184466019417</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1553398058252427</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="R6">
-        <v>0.07766990291262135</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S6">
-        <v>0.3203883495145631</v>
+        <v>0.3198198198198198</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02840909090909091</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05113636363636364</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1306818181818182</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005681818181818182</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1193181818181818</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="S7">
-        <v>0.4772727272727273</v>
+        <v>0.455026455026455</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.102974828375286</v>
+        <v>0.1066945606694561</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01601830663615561</v>
+        <v>0.01882845188284519</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="F8">
-        <v>0.06407322654462243</v>
+        <v>0.06485355648535565</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1121281464530892</v>
+        <v>0.1108786610878661</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0137299771167048</v>
+        <v>0.01464435146443515</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1601830663615561</v>
+        <v>0.1610878661087866</v>
       </c>
       <c r="R8">
-        <v>0.08695652173913043</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="S8">
-        <v>0.4439359267734554</v>
+        <v>0.4372384937238494</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07199999999999999</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.096</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.16</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.032</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.136</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="R9">
-        <v>0.096</v>
+        <v>0.09701492537313433</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.4104477611940299</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1170858629661752</v>
+        <v>0.1157222665602554</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02341717259323504</v>
+        <v>0.02314445331205108</v>
       </c>
       <c r="E10">
-        <v>0.002601908065915004</v>
+        <v>0.002394253790901836</v>
       </c>
       <c r="F10">
-        <v>0.07545533391153512</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1274934952298352</v>
+        <v>0.1332801276935355</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02428447528187338</v>
+        <v>0.02314445331205108</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2116218560277537</v>
+        <v>0.2162809257781325</v>
       </c>
       <c r="R10">
-        <v>0.08326105810928014</v>
+        <v>0.07901037509976057</v>
       </c>
       <c r="S10">
-        <v>0.3347788378143972</v>
+        <v>0.3343974461292897</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00819672131147541</v>
+        <v>0.0078125</v>
       </c>
       <c r="G11">
-        <v>0.1475409836065574</v>
+        <v>0.14453125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0778688524590164</v>
+        <v>0.078125</v>
       </c>
       <c r="K11">
-        <v>0.1844262295081967</v>
+        <v>0.1796875</v>
       </c>
       <c r="L11">
-        <v>0.569672131147541</v>
+        <v>0.578125</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01229508196721311</v>
+        <v>0.01171875</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7517241379310344</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1793103448275862</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="K12">
-        <v>0.006896551724137931</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.04137931034482759</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02068965517241379</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7272727272727273</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07272727272727272</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1526315789473684</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="I15">
-        <v>0.06315789473684211</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="J15">
-        <v>0.3368421052631579</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K15">
-        <v>0.06315789473684211</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01052631578947368</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04210526315789474</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3105263157894737</v>
+        <v>0.3203883495145631</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02631578947368421</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1526315789473684</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.04736842105263158</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="J16">
-        <v>0.4210526315789473</v>
+        <v>0.4187192118226601</v>
       </c>
       <c r="K16">
-        <v>0.1578947368421053</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02105263157894737</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04736842105263158</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1263157894736842</v>
+        <v>0.1477832512315271</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01275510204081633</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1760204081632653</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="I17">
-        <v>0.06887755102040816</v>
+        <v>0.06712962962962964</v>
       </c>
       <c r="J17">
-        <v>0.4158163265306122</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K17">
-        <v>0.08928571428571429</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03061224489795918</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="N17">
-        <v>0.002551020408163265</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="O17">
-        <v>0.07397959183673469</v>
+        <v>0.07175925925925926</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1301020408163265</v>
+        <v>0.1226851851851852</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005617977528089887</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1573033707865168</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I18">
-        <v>0.05617977528089887</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="J18">
-        <v>0.4831460674157304</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K18">
-        <v>0.09550561797752809</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02247191011235955</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
-        <v>0.005617977528089887</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="O18">
-        <v>0.03932584269662921</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1348314606741573</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01612903225806452</v>
+        <v>0.01483924154987634</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2544802867383513</v>
+        <v>0.2547403132728772</v>
       </c>
       <c r="I19">
-        <v>0.06093189964157706</v>
+        <v>0.06100577081615829</v>
       </c>
       <c r="J19">
-        <v>0.3593189964157706</v>
+        <v>0.361088211046991</v>
       </c>
       <c r="K19">
-        <v>0.09677419354838709</v>
+        <v>0.09315746084089035</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02956989247311828</v>
+        <v>0.03050288540807914</v>
       </c>
       <c r="N19">
-        <v>0.0008960573476702509</v>
+        <v>0.0008244023083264633</v>
       </c>
       <c r="O19">
-        <v>0.07168458781362007</v>
+        <v>0.07089859851607584</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1102150537634409</v>
+        <v>0.1129431162407255</v>
       </c>
     </row>
   </sheetData>
